--- a/biology/Zoologie/Brachistosternus/Brachistosternus.xlsx
+++ b/biology/Zoologie/Brachistosternus/Brachistosternus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachistosternus est un genre de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (20/04/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (20/04/2023) :
 Brachistosternus aconcagua Ojanguren Affilastro &amp; Luisa-Scioscia, 2007
 Brachistosternus alienus Lönnberg, 1898
 Brachistosternus anandrovestigia Ojanguren Affilastro, Pizarro-Araya &amp; Ochoa, 2018
@@ -623,10 +639,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Pocock en 1893.
-Leptosternus[3] et Microsternus[3] Maury, 1973, préoccupé par Microsternus Lewis, 1887, remplacé par Ministernus par Francke en 1985[4] ont été décrit comme sous-genre de Brachistosternus.
+Leptosternus et Microsternus Maury, 1973, préoccupé par Microsternus Lewis, 1887, remplacé par Ministernus par Francke en 1985 ont été décrit comme sous-genre de Brachistosternus.
 </t>
         </is>
       </c>
@@ -655,7 +673,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pocock, 1893 : « Contributions to our knowledge of the Arthropod fauna of the West Indies. Part I. Scorpiones und Pedipalpi; with a supplementary note upon the freshwater Decapoda of St. Vincent. » The Journal of the Linnean Society of London. Zoology, vol. 24, p. 374–409 (texte intégral).</t>
         </is>
